--- a/Docs/Hardware/延迟测试器BOM.xlsx
+++ b/Docs/Hardware/延迟测试器BOM.xlsx
@@ -321,11 +321,34 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_3CDE111D44D54F87A5B2880B30020D5A" descr="微信图片_20250928120133_12_174"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="7540625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="182">
   <si>
     <t>延迟测试器BOM</t>
   </si>
@@ -866,7 +889,10 @@
     <t>定制</t>
   </si>
   <si>
-    <t>【淘宝】https://e.tb.cn/h.SdEb4Exc69EKaW0?tk=uRnV4voGnIc HU926 「磁棒电感线圈绕制 锰锌镍锌铁氧体 低频天线 磁芯线圈 厂家定制」
+    <t>用猛锌铁氧体材料，直径6mm*长度39mm，用0.4mm的漆包线绕5层（找客服定制）</t>
+  </si>
+  <si>
+    <t>【淘宝】https://e.tb.cn/h.S4bxYEJ5Le5NJKq?tk=TJ4y4xEsE35 HU108 「中周成品定制 线圈定制 调幅中波中周中频变压器 可调节磁帽磁芯」
 点击链接直接打开 或者 淘宝搜索直接打开</t>
   </si>
   <si>
@@ -2077,7 +2103,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3039,7 +3065,7 @@
       </c>
       <c r="I37" s="37"/>
     </row>
-    <row r="38" s="3" customFormat="1" customHeight="1" spans="1:9">
+    <row r="38" s="3" customFormat="1" ht="37" customHeight="1" spans="1:9">
       <c r="A38" s="30" t="s">
         <v>177</v>
       </c>
@@ -3051,15 +3077,18 @@
         <v>150</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="F38" s="37">
         <v>1</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="40"/>
+        <v>180</v>
+      </c>
+      <c r="H38" s="38" t="str">
+        <f>_xlfn.DISPIMG("ID_3CDE111D44D54F87A5B2880B30020D5A",1)</f>
+        <v>=DISPIMG("ID_3CDE111D44D54F87A5B2880B30020D5A",1)</v>
+      </c>
       <c r="I38" s="37"/>
     </row>
     <row r="39" s="3" customFormat="1" customHeight="1" spans="1:9">
@@ -3074,7 +3103,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
